--- a/2-ETL com Power Query/Dados-Desnormalizados.xlsx
+++ b/2-ETL com Power Query/Dados-Desnormalizados.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonardo\Google Drive\Data Science e BI\Power BI\Curso Power BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CURSOS\Microsoft Power BI\2-ETL com Power Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="data" localSheetId="0">Clientes!$A$2:$L$253</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="300">
   <si>
     <t>Data Venda</t>
   </si>
@@ -947,6 +947,12 @@
   </si>
   <si>
     <t>Monky House</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>tim a</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1473,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1781,24 +1815,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L253"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" style="45"/>
-    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="17.26953125" style="1"/>
-    <col min="8" max="8" width="17.26953125" style="3"/>
-    <col min="9" max="10" width="17.26953125" style="1"/>
-    <col min="11" max="11" width="17.26953125" style="3"/>
-    <col min="12" max="16384" width="17.26953125" style="1"/>
+    <col min="1" max="1" width="17.28515625" style="45"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="17.28515625" style="1"/>
+    <col min="8" max="8" width="17.28515625" style="3"/>
+    <col min="9" max="10" width="17.28515625" style="1"/>
+    <col min="11" max="11" width="17.28515625" style="3"/>
+    <col min="12" max="16384" width="17.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1854,7 @@
       </c>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
       <c r="B2" s="40" t="s">
         <v>1</v>
@@ -1856,7 +1890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>42038</v>
       </c>
@@ -1884,7 +1918,7 @@
       <c r="K3" s="51"/>
       <c r="L3" s="52"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>42039</v>
       </c>
@@ -1912,7 +1946,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
         <v>42043</v>
       </c>
@@ -1944,7 +1978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>42065</v>
       </c>
@@ -1978,7 +2012,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <v>42077</v>
       </c>
@@ -2016,7 +2050,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="43">
         <v>42101</v>
       </c>
@@ -2044,7 +2078,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>42106</v>
       </c>
@@ -2072,7 +2106,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <v>42136</v>
       </c>
@@ -2100,7 +2134,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>42137</v>
       </c>
@@ -2132,7 +2166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>42139</v>
       </c>
@@ -2166,7 +2200,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>42139</v>
       </c>
@@ -2194,7 +2228,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>42161</v>
       </c>
@@ -2226,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>42172</v>
       </c>
@@ -2254,7 +2288,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <v>42175</v>
       </c>
@@ -2286,7 +2320,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <v>42178</v>
       </c>
@@ -2314,7 +2348,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>42180</v>
       </c>
@@ -2346,7 +2380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>42184</v>
       </c>
@@ -2374,7 +2408,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="43">
         <v>42186</v>
       </c>
@@ -2406,7 +2440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
         <v>42190</v>
       </c>
@@ -2438,7 +2472,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="43">
         <v>42197</v>
       </c>
@@ -2466,7 +2500,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="43">
         <v>42200</v>
       </c>
@@ -2498,7 +2532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
         <v>42206</v>
       </c>
@@ -2526,7 +2560,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>42206</v>
       </c>
@@ -2554,7 +2588,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <v>42210</v>
       </c>
@@ -2582,7 +2616,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>42211</v>
       </c>
@@ -2614,7 +2648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
         <v>42219</v>
       </c>
@@ -2642,7 +2676,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>42221</v>
       </c>
@@ -2676,7 +2710,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
         <v>42222</v>
       </c>
@@ -2708,7 +2742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>42223</v>
       </c>
@@ -2736,7 +2770,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="43">
         <v>42238</v>
       </c>
@@ -2764,7 +2798,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="43">
         <v>42241</v>
       </c>
@@ -2792,7 +2826,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="43">
         <v>42244</v>
       </c>
@@ -2824,7 +2858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <v>42245</v>
       </c>
@@ -2852,7 +2886,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="43">
         <v>42247</v>
       </c>
@@ -2884,7 +2918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="43">
         <v>42247</v>
       </c>
@@ -2912,7 +2946,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="43">
         <v>42252</v>
       </c>
@@ -2940,7 +2974,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="43">
         <v>42255</v>
       </c>
@@ -2972,7 +3006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="43">
         <v>42262</v>
       </c>
@@ -3000,7 +3034,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
         <v>42264</v>
       </c>
@@ -3028,7 +3062,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="43">
         <v>42264</v>
       </c>
@@ -3056,7 +3090,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="43">
         <v>42269</v>
       </c>
@@ -3084,7 +3118,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="43">
         <v>42270</v>
       </c>
@@ -3116,7 +3150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="43">
         <v>42272</v>
       </c>
@@ -3144,7 +3178,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
         <v>42277</v>
       </c>
@@ -3182,7 +3216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <v>42286</v>
       </c>
@@ -3210,7 +3244,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
         <v>42288.041666666664</v>
       </c>
@@ -3238,7 +3272,7 @@
       <c r="K48" s="15"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>42289</v>
       </c>
@@ -3272,7 +3306,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="43">
         <v>42290</v>
       </c>
@@ -3304,7 +3338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="43">
         <v>42295</v>
       </c>
@@ -3332,7 +3366,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="43">
         <v>42299</v>
       </c>
@@ -3360,7 +3394,7 @@
       <c r="K52" s="15"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
         <v>42301</v>
       </c>
@@ -3388,7 +3422,7 @@
       <c r="K53" s="15"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
         <v>42303</v>
       </c>
@@ -3420,7 +3454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <v>42308</v>
       </c>
@@ -3448,7 +3482,7 @@
       <c r="K55" s="15"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
         <v>42313</v>
       </c>
@@ -3476,7 +3510,7 @@
       <c r="K56" s="15"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
         <v>42315</v>
       </c>
@@ -3504,7 +3538,7 @@
       <c r="K57" s="15"/>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
         <v>42318</v>
       </c>
@@ -3532,7 +3566,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <v>42319</v>
       </c>
@@ -3560,7 +3594,7 @@
       <c r="K59" s="15"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="43">
         <v>42324</v>
       </c>
@@ -3592,7 +3626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <v>42329</v>
       </c>
@@ -3620,7 +3654,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="43">
         <v>42329</v>
       </c>
@@ -3648,7 +3682,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="43">
         <v>42330</v>
       </c>
@@ -3676,7 +3710,7 @@
       <c r="K63" s="15"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="43">
         <v>42331</v>
       </c>
@@ -3704,7 +3738,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <v>42332</v>
       </c>
@@ -3732,7 +3766,7 @@
       <c r="K65" s="15"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
         <v>42333</v>
       </c>
@@ -3760,7 +3794,7 @@
       <c r="K66" s="15"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <v>42338</v>
       </c>
@@ -3798,7 +3832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <v>42340</v>
       </c>
@@ -3832,7 +3866,7 @@
       <c r="K68" s="15"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="43">
         <v>42341</v>
       </c>
@@ -3860,7 +3894,7 @@
       <c r="K69" s="15"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="43">
         <v>42348</v>
       </c>
@@ -3892,7 +3926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="43">
         <v>42354</v>
       </c>
@@ -3920,7 +3954,7 @@
       <c r="K71" s="15"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="43">
         <v>42356</v>
       </c>
@@ -3948,7 +3982,7 @@
       <c r="K72" s="15"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="43">
         <v>42357</v>
       </c>
@@ -3976,7 +4010,7 @@
       <c r="K73" s="15"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43">
         <v>42366</v>
       </c>
@@ -4008,7 +4042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="53"/>
       <c r="B75" s="54"/>
       <c r="C75" s="54"/>
@@ -4022,7 +4056,7 @@
       <c r="K75" s="54"/>
       <c r="L75" s="55"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -4036,7 +4070,7 @@
       <c r="K76" s="57"/>
       <c r="L76" s="58"/>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="59"/>
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
@@ -4050,7 +4084,7 @@
       <c r="K77" s="60"/>
       <c r="L77" s="61"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="43">
         <v>42379</v>
       </c>
@@ -4078,7 +4112,7 @@
       <c r="K78" s="51"/>
       <c r="L78" s="52"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="43">
         <v>42382</v>
       </c>
@@ -4106,7 +4140,7 @@
       <c r="K79" s="15"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="43">
         <v>42383</v>
       </c>
@@ -4134,7 +4168,7 @@
       <c r="K80" s="15"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="43">
         <v>42386</v>
       </c>
@@ -4162,7 +4196,7 @@
       <c r="K81" s="15"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="43">
         <v>42387</v>
       </c>
@@ -4190,7 +4224,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="43">
         <v>42396</v>
       </c>
@@ -4224,7 +4258,7 @@
       <c r="K83" s="15"/>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="43">
         <v>42397</v>
       </c>
@@ -4256,7 +4290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="43">
         <v>42402</v>
       </c>
@@ -4284,7 +4318,7 @@
       <c r="K85" s="15"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <v>42407</v>
       </c>
@@ -4312,7 +4346,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="43">
         <v>42409</v>
       </c>
@@ -4340,7 +4374,7 @@
       <c r="K87" s="15"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="43">
         <v>42411</v>
       </c>
@@ -4368,7 +4402,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="43">
         <v>42412</v>
       </c>
@@ -4396,7 +4430,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="43">
         <v>42412</v>
       </c>
@@ -4424,7 +4458,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="43">
         <v>42418</v>
       </c>
@@ -4452,7 +4486,7 @@
       <c r="K91" s="15"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="43">
         <v>42419</v>
       </c>
@@ -4480,7 +4514,7 @@
       <c r="K92" s="15"/>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="43">
         <v>42424</v>
       </c>
@@ -4508,7 +4542,7 @@
       <c r="K93" s="15"/>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="43">
         <v>42429</v>
       </c>
@@ -4540,7 +4574,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="43">
         <v>42430</v>
       </c>
@@ -4568,7 +4602,7 @@
       <c r="K95" s="15"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="43">
         <v>42434</v>
       </c>
@@ -4602,7 +4636,7 @@
       <c r="K96" s="15"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="43">
         <v>42438</v>
       </c>
@@ -4630,7 +4664,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="43">
         <v>42439</v>
       </c>
@@ -4658,7 +4692,7 @@
       <c r="K98" s="15"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="43">
         <v>42441</v>
       </c>
@@ -4686,7 +4720,7 @@
       <c r="K99" s="15"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="43">
         <v>42441</v>
       </c>
@@ -4720,7 +4754,7 @@
       <c r="K100" s="15"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="43">
         <v>42443</v>
       </c>
@@ -4748,7 +4782,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="43">
         <v>42443</v>
       </c>
@@ -4776,7 +4810,7 @@
       <c r="K102" s="15"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="43">
         <v>42446</v>
       </c>
@@ -4804,7 +4838,7 @@
       <c r="K103" s="15"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="43">
         <v>42448</v>
       </c>
@@ -4832,7 +4866,7 @@
       <c r="K104" s="15"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="43">
         <v>42450</v>
       </c>
@@ -4860,7 +4894,7 @@
       <c r="K105" s="15"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="43">
         <v>42452</v>
       </c>
@@ -4892,7 +4926,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="43">
         <v>42453</v>
       </c>
@@ -4920,7 +4954,7 @@
       <c r="K107" s="15"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="43">
         <v>42454</v>
       </c>
@@ -4948,7 +4982,7 @@
       <c r="K108" s="15"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
         <v>42456</v>
       </c>
@@ -4976,7 +5010,7 @@
       <c r="K109" s="15"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="43">
         <v>42456</v>
       </c>
@@ -5008,7 +5042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="43">
         <v>42459</v>
       </c>
@@ -5036,7 +5070,7 @@
       <c r="K111" s="15"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="43">
         <v>42462</v>
       </c>
@@ -5064,7 +5098,7 @@
       <c r="K112" s="15"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <v>42464</v>
       </c>
@@ -5092,7 +5126,7 @@
       <c r="K113" s="15"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="43">
         <v>42465</v>
       </c>
@@ -5126,7 +5160,7 @@
       <c r="K114" s="15"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="43">
         <v>42467</v>
       </c>
@@ -5154,7 +5188,7 @@
       <c r="K115" s="15"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="43">
         <v>42469</v>
       </c>
@@ -5186,7 +5220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="43">
         <v>42469</v>
       </c>
@@ -5214,7 +5248,7 @@
       <c r="K117" s="15"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
         <v>42472</v>
       </c>
@@ -5242,7 +5276,7 @@
       <c r="K118" s="15"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="43">
         <v>42474</v>
       </c>
@@ -5270,7 +5304,7 @@
       <c r="K119" s="15"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="43">
         <v>42475</v>
       </c>
@@ -5302,7 +5336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="43">
         <v>42476</v>
       </c>
@@ -5330,7 +5364,7 @@
       <c r="K121" s="15"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="43">
         <v>42478</v>
       </c>
@@ -5358,7 +5392,7 @@
       <c r="K122" s="15"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="43">
         <v>42483</v>
       </c>
@@ -5386,7 +5420,7 @@
       <c r="K123" s="15"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="43">
         <v>42485</v>
       </c>
@@ -5414,7 +5448,7 @@
       <c r="K124" s="15"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
         <v>42494</v>
       </c>
@@ -5442,7 +5476,7 @@
       <c r="K125" s="15"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <v>42498</v>
       </c>
@@ -5476,7 +5510,7 @@
       <c r="K126" s="15"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="43">
         <v>42503</v>
       </c>
@@ -5508,7 +5542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="43">
         <v>42503</v>
       </c>
@@ -5536,7 +5570,7 @@
       <c r="K128" s="15"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="43">
         <v>42506</v>
       </c>
@@ -5564,7 +5598,7 @@
       <c r="K129" s="15"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="43">
         <v>42509</v>
       </c>
@@ -5592,7 +5626,7 @@
       <c r="K130" s="15"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <v>42509</v>
       </c>
@@ -5620,7 +5654,7 @@
       <c r="K131" s="15"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="43">
         <v>42512</v>
       </c>
@@ -5648,7 +5682,7 @@
       <c r="K132" s="15"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="43">
         <v>42512</v>
       </c>
@@ -5676,7 +5710,7 @@
       <c r="K133" s="15"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="43">
         <v>42514</v>
       </c>
@@ -5708,7 +5742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <v>42515</v>
       </c>
@@ -5736,7 +5770,7 @@
       <c r="K135" s="15"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="43">
         <v>42519</v>
       </c>
@@ -5764,7 +5798,7 @@
       <c r="K136" s="15"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="43">
         <v>42519</v>
       </c>
@@ -5792,7 +5826,7 @@
       <c r="K137" s="15"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="43">
         <v>42519</v>
       </c>
@@ -5820,7 +5854,7 @@
       <c r="K138" s="15"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <v>42524</v>
       </c>
@@ -5852,7 +5886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="43">
         <v>42524</v>
       </c>
@@ -5880,7 +5914,7 @@
       <c r="K140" s="15"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="43">
         <v>42524</v>
       </c>
@@ -5908,7 +5942,7 @@
       <c r="K141" s="15"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="43">
         <v>42528</v>
       </c>
@@ -5936,7 +5970,7 @@
       <c r="K142" s="15"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
         <v>42529</v>
       </c>
@@ -5964,7 +5998,7 @@
       <c r="K143" s="15"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="43">
         <v>42529</v>
       </c>
@@ -5992,7 +6026,7 @@
       <c r="K144" s="15"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="43">
         <v>42530</v>
       </c>
@@ -6020,7 +6054,7 @@
       <c r="K145" s="15"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="43">
         <v>42534</v>
       </c>
@@ -6048,7 +6082,7 @@
       <c r="K146" s="15"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="43">
         <v>42534</v>
       </c>
@@ -6076,7 +6110,7 @@
       <c r="K147" s="15"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="43">
         <v>42535</v>
       </c>
@@ -6104,7 +6138,7 @@
       <c r="K148" s="15"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="43">
         <v>42538</v>
       </c>
@@ -6132,7 +6166,7 @@
       <c r="K149" s="15"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="43">
         <v>42539</v>
       </c>
@@ -6166,7 +6200,7 @@
       <c r="K150" s="15"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="43">
         <v>42544</v>
       </c>
@@ -6194,7 +6228,7 @@
       <c r="K151" s="15"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="43">
         <v>42549</v>
       </c>
@@ -6222,7 +6256,7 @@
       <c r="K152" s="15"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="43">
         <v>42550</v>
       </c>
@@ -6254,7 +6288,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="43">
         <v>42552</v>
       </c>
@@ -6282,7 +6316,7 @@
       <c r="K154" s="15"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="43">
         <v>42558</v>
       </c>
@@ -6310,7 +6344,7 @@
       <c r="K155" s="15"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="43">
         <v>42560</v>
       </c>
@@ -6338,7 +6372,7 @@
       <c r="K156" s="15"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="43">
         <v>42561</v>
       </c>
@@ -6366,7 +6400,7 @@
       <c r="K157" s="15"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="43">
         <v>42564</v>
       </c>
@@ -6394,7 +6428,7 @@
       <c r="K158" s="15"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="43">
         <v>42568</v>
       </c>
@@ -6426,7 +6460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="43">
         <v>42570</v>
       </c>
@@ -6454,7 +6488,7 @@
       <c r="K160" s="15"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="43">
         <v>42573</v>
       </c>
@@ -6482,7 +6516,7 @@
       <c r="K161" s="15"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="43">
         <v>42573</v>
       </c>
@@ -6510,7 +6544,7 @@
       <c r="K162" s="15"/>
       <c r="L162" s="7"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="43">
         <v>42574</v>
       </c>
@@ -6538,7 +6572,7 @@
       <c r="K163" s="15"/>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="43">
         <v>42575</v>
       </c>
@@ -6566,7 +6600,7 @@
       <c r="K164" s="15"/>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="43">
         <v>42576</v>
       </c>
@@ -6600,7 +6634,7 @@
       <c r="K165" s="15"/>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="43">
         <v>42584</v>
       </c>
@@ -6632,7 +6666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="43">
         <v>42586</v>
       </c>
@@ -6660,7 +6694,7 @@
       <c r="K167" s="15"/>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="43">
         <v>42588</v>
       </c>
@@ -6688,7 +6722,7 @@
       <c r="K168" s="15"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
         <v>42593</v>
       </c>
@@ -6716,7 +6750,7 @@
       <c r="K169" s="15"/>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="43">
         <v>42594</v>
       </c>
@@ -6748,7 +6782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="43">
         <v>42597</v>
       </c>
@@ -6776,7 +6810,7 @@
       <c r="K171" s="15"/>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="43">
         <v>42598</v>
       </c>
@@ -6804,7 +6838,7 @@
       <c r="K172" s="15"/>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="43">
         <v>42598</v>
       </c>
@@ -6832,7 +6866,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="43">
         <v>42601</v>
       </c>
@@ -6864,7 +6898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="43">
         <v>42608</v>
       </c>
@@ -6892,7 +6926,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="43">
         <v>42610</v>
       </c>
@@ -6920,7 +6954,7 @@
       <c r="K176" s="15"/>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="43">
         <v>42612</v>
       </c>
@@ -6948,7 +6982,7 @@
       <c r="K177" s="15"/>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="43">
         <v>42612</v>
       </c>
@@ -6976,7 +7010,7 @@
       <c r="K178" s="15"/>
       <c r="L178" s="7"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="43">
         <v>42613</v>
       </c>
@@ -7004,7 +7038,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="7"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="43">
         <v>42613</v>
       </c>
@@ -7036,7 +7070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="43">
         <v>42615</v>
       </c>
@@ -7064,7 +7098,7 @@
       <c r="K181" s="15"/>
       <c r="L181" s="7"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="43">
         <v>42616</v>
       </c>
@@ -7092,7 +7126,7 @@
       <c r="K182" s="15"/>
       <c r="L182" s="7"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="43">
         <v>42619</v>
       </c>
@@ -7120,7 +7154,7 @@
       <c r="K183" s="15"/>
       <c r="L183" s="7"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="43">
         <v>42621</v>
       </c>
@@ -7148,7 +7182,7 @@
       <c r="K184" s="15"/>
       <c r="L184" s="7"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="43">
         <v>42622</v>
       </c>
@@ -7176,7 +7210,7 @@
       <c r="K185" s="15"/>
       <c r="L185" s="7"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="43">
         <v>42624</v>
       </c>
@@ -7208,7 +7242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="43">
         <v>42625</v>
       </c>
@@ -7242,7 +7276,7 @@
       <c r="K187" s="15"/>
       <c r="L187" s="7"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="43">
         <v>42633</v>
       </c>
@@ -7270,7 +7304,7 @@
       <c r="K188" s="15"/>
       <c r="L188" s="7"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="43">
         <v>42637</v>
       </c>
@@ -7298,7 +7332,7 @@
       <c r="K189" s="15"/>
       <c r="L189" s="7"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="43">
         <v>42642</v>
       </c>
@@ -7326,7 +7360,7 @@
       <c r="K190" s="15"/>
       <c r="L190" s="7"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="43">
         <v>42648</v>
       </c>
@@ -7354,7 +7388,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="7"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="43">
         <v>42649</v>
       </c>
@@ -7382,7 +7416,7 @@
       <c r="K192" s="15"/>
       <c r="L192" s="7"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="43">
         <v>42650</v>
       </c>
@@ -7410,7 +7444,7 @@
       <c r="K193" s="15"/>
       <c r="L193" s="7"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="43">
         <v>42650</v>
       </c>
@@ -7438,7 +7472,7 @@
       <c r="K194" s="15"/>
       <c r="L194" s="7"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="43">
         <v>42651</v>
       </c>
@@ -7466,7 +7500,7 @@
       <c r="K195" s="15"/>
       <c r="L195" s="7"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="43">
         <v>42652.041666666664</v>
       </c>
@@ -7498,7 +7532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="43">
         <v>42659</v>
       </c>
@@ -7526,7 +7560,7 @@
       <c r="K197" s="15"/>
       <c r="L197" s="7"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="43">
         <v>42661</v>
       </c>
@@ -7554,7 +7588,7 @@
       <c r="K198" s="15"/>
       <c r="L198" s="7"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="43">
         <v>42661</v>
       </c>
@@ -7582,7 +7616,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="7"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="43">
         <v>42664</v>
       </c>
@@ -7610,7 +7644,7 @@
       <c r="K200" s="15"/>
       <c r="L200" s="7"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="43">
         <v>42666</v>
       </c>
@@ -7638,7 +7672,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="7"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="43">
         <v>42677</v>
       </c>
@@ -7672,7 +7706,7 @@
       <c r="K202" s="15"/>
       <c r="L202" s="7"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="43">
         <v>42677</v>
       </c>
@@ -7700,7 +7734,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="7"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="43">
         <v>42678</v>
       </c>
@@ -7732,7 +7766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="43">
         <v>42679</v>
       </c>
@@ -7760,7 +7794,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="7"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="43">
         <v>42680</v>
       </c>
@@ -7788,7 +7822,7 @@
       <c r="K206" s="15"/>
       <c r="L206" s="7"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="43">
         <v>42685</v>
       </c>
@@ -7816,7 +7850,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="7"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="43">
         <v>42693</v>
       </c>
@@ -7844,7 +7878,7 @@
       <c r="K208" s="15"/>
       <c r="L208" s="7"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="43">
         <v>42698</v>
       </c>
@@ -7876,7 +7910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="43">
         <v>42699</v>
       </c>
@@ -7904,7 +7938,7 @@
       <c r="K210" s="15"/>
       <c r="L210" s="7"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="43">
         <v>42702</v>
       </c>
@@ -7932,7 +7966,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="7"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="43">
         <v>42703</v>
       </c>
@@ -7960,7 +7994,7 @@
       <c r="K212" s="15"/>
       <c r="L212" s="7"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="43">
         <v>42705</v>
       </c>
@@ -7992,7 +8026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="43">
         <v>42706</v>
       </c>
@@ -8020,7 +8054,7 @@
       <c r="K214" s="15"/>
       <c r="L214" s="7"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="43">
         <v>42714</v>
       </c>
@@ -8048,7 +8082,7 @@
       <c r="K215" s="15"/>
       <c r="L215" s="7"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="43">
         <v>42720</v>
       </c>
@@ -8076,7 +8110,7 @@
       <c r="K216" s="15"/>
       <c r="L216" s="7"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="43">
         <v>42721</v>
       </c>
@@ -8104,7 +8138,7 @@
       <c r="K217" s="15"/>
       <c r="L217" s="7"/>
     </row>
-    <row r="218" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="43">
         <v>42730</v>
       </c>
@@ -8132,7 +8166,7 @@
       <c r="K218" s="16"/>
       <c r="L218" s="11"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="53"/>
       <c r="B219" s="54"/>
       <c r="C219" s="54"/>
@@ -8146,7 +8180,7 @@
       <c r="K219" s="54"/>
       <c r="L219" s="55"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="56"/>
       <c r="B220" s="57"/>
       <c r="C220" s="57"/>
@@ -8160,7 +8194,7 @@
       <c r="K220" s="57"/>
       <c r="L220" s="58"/>
     </row>
-    <row r="221" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="59"/>
       <c r="B221" s="60"/>
       <c r="C221" s="60"/>
@@ -8174,7 +8208,7 @@
       <c r="K221" s="60"/>
       <c r="L221" s="61"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="43">
         <v>42742</v>
       </c>
@@ -8202,7 +8236,7 @@
       <c r="K222" s="12"/>
       <c r="L222" s="7"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="43">
         <v>42747</v>
       </c>
@@ -8230,7 +8264,7 @@
       <c r="K223" s="12"/>
       <c r="L223" s="7"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="43">
         <v>42748</v>
       </c>
@@ -8258,7 +8292,7 @@
       <c r="K224" s="12"/>
       <c r="L224" s="7"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="43">
         <v>42761</v>
       </c>
@@ -8286,7 +8320,7 @@
       <c r="K225" s="12"/>
       <c r="L225" s="7"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="43">
         <v>42761</v>
       </c>
@@ -8314,7 +8348,7 @@
       <c r="K226" s="12"/>
       <c r="L226" s="7"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="43">
         <v>42763</v>
       </c>
@@ -8342,7 +8376,7 @@
       <c r="K227" s="12"/>
       <c r="L227" s="7"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="43">
         <v>42769</v>
       </c>
@@ -8370,7 +8404,7 @@
       <c r="K228" s="12"/>
       <c r="L228" s="7"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="43">
         <v>42770</v>
       </c>
@@ -8398,7 +8432,7 @@
       <c r="K229" s="12"/>
       <c r="L229" s="7"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="43">
         <v>42772</v>
       </c>
@@ -8426,7 +8460,7 @@
       <c r="K230" s="12"/>
       <c r="L230" s="7"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="43">
         <v>42772</v>
       </c>
@@ -8454,7 +8488,7 @@
       <c r="K231" s="12"/>
       <c r="L231" s="7"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="43">
         <v>42773</v>
       </c>
@@ -8482,7 +8516,7 @@
       <c r="K232" s="12"/>
       <c r="L232" s="7"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="43">
         <v>42776</v>
       </c>
@@ -8510,7 +8544,7 @@
       <c r="K233" s="12"/>
       <c r="L233" s="7"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="43">
         <v>42779</v>
       </c>
@@ -8538,7 +8572,7 @@
       <c r="K234" s="12"/>
       <c r="L234" s="7"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="43">
         <v>42788</v>
       </c>
@@ -8566,7 +8600,7 @@
       <c r="K235" s="12"/>
       <c r="L235" s="7"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="43">
         <v>42790</v>
       </c>
@@ -8594,7 +8628,7 @@
       <c r="K236" s="12"/>
       <c r="L236" s="7"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="43">
         <v>42802</v>
       </c>
@@ -8622,7 +8656,7 @@
       <c r="K237" s="12"/>
       <c r="L237" s="7"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="43">
         <v>42802</v>
       </c>
@@ -8650,7 +8684,7 @@
       <c r="K238" s="12"/>
       <c r="L238" s="7"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="43">
         <v>42802</v>
       </c>
@@ -8678,7 +8712,7 @@
       <c r="K239" s="12"/>
       <c r="L239" s="7"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="43">
         <v>42805</v>
       </c>
@@ -8706,7 +8740,7 @@
       <c r="K240" s="12"/>
       <c r="L240" s="7"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="43">
         <v>42806</v>
       </c>
@@ -8734,7 +8768,7 @@
       <c r="K241" s="12"/>
       <c r="L241" s="7"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="43">
         <v>42807</v>
       </c>
@@ -8762,7 +8796,7 @@
       <c r="K242" s="12"/>
       <c r="L242" s="7"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="43">
         <v>42813</v>
       </c>
@@ -8790,7 +8824,7 @@
       <c r="K243" s="12"/>
       <c r="L243" s="7"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="43">
         <v>42814</v>
       </c>
@@ -8818,7 +8852,7 @@
       <c r="K244" s="12"/>
       <c r="L244" s="7"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="43">
         <v>42817</v>
       </c>
@@ -8846,7 +8880,7 @@
       <c r="K245" s="12"/>
       <c r="L245" s="7"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="43">
         <v>42818</v>
       </c>
@@ -8874,7 +8908,7 @@
       <c r="K246" s="12"/>
       <c r="L246" s="7"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="43">
         <v>42819</v>
       </c>
@@ -8902,7 +8936,7 @@
       <c r="K247" s="12"/>
       <c r="L247" s="7"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="43">
         <v>42820</v>
       </c>
@@ -8930,7 +8964,7 @@
       <c r="K248" s="12"/>
       <c r="L248" s="7"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="43">
         <v>42821</v>
       </c>
@@ -8958,7 +8992,7 @@
       <c r="K249" s="12"/>
       <c r="L249" s="7"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="43">
         <v>42821</v>
       </c>
@@ -8986,7 +9020,7 @@
       <c r="K250" s="12"/>
       <c r="L250" s="7"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="43">
         <v>42821</v>
       </c>
@@ -9014,7 +9048,7 @@
       <c r="K251" s="12"/>
       <c r="L251" s="7"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="43">
         <v>42822</v>
       </c>
@@ -9042,7 +9076,7 @@
       <c r="K252" s="12"/>
       <c r="L252" s="7"/>
     </row>
-    <row r="253" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="44">
         <v>42823</v>
       </c>
@@ -9069,6 +9103,52 @@
       <c r="J253" s="11"/>
       <c r="K253" s="16"/>
       <c r="L253" s="11"/>
+    </row>
+    <row r="254" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="45">
+        <v>42917</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D254" s="10">
+        <v>9850</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="45">
+        <v>42917</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D255" s="10">
+        <v>9850</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:L253">
@@ -9095,14 +9175,14 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="18"/>
-    <col min="2" max="2" width="15.1796875" style="48" customWidth="1"/>
-    <col min="3" max="16384" width="11.08984375" style="17"/>
+    <col min="1" max="1" width="11.140625" style="18"/>
+    <col min="2" max="2" width="15.140625" style="48" customWidth="1"/>
+    <col min="3" max="16384" width="11.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>263</v>
       </c>
@@ -9110,11 +9190,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="73"/>
       <c r="B2" s="75"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>42036</v>
       </c>
@@ -9122,7 +9202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>42064</v>
       </c>
@@ -9130,7 +9210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>42095</v>
       </c>
@@ -9138,7 +9218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>42125</v>
       </c>
@@ -9146,7 +9226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>42156</v>
       </c>
@@ -9154,7 +9234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>42186</v>
       </c>
@@ -9162,7 +9242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>42217</v>
       </c>
@@ -9170,7 +9250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>42248</v>
       </c>
@@ -9178,7 +9258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>42278</v>
       </c>
@@ -9186,7 +9266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>42309</v>
       </c>
@@ -9194,7 +9274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>42339</v>
       </c>
@@ -9202,7 +9282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>42370</v>
       </c>
@@ -9210,7 +9290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>42401</v>
       </c>
@@ -9218,7 +9298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>42430</v>
       </c>
@@ -9226,7 +9306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>42461</v>
       </c>
@@ -9234,7 +9314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>42491</v>
       </c>
@@ -9242,7 +9322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>42522</v>
       </c>
@@ -9250,7 +9330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>42552</v>
       </c>
@@ -9258,7 +9338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>42583</v>
       </c>
@@ -9266,7 +9346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>42614</v>
       </c>
@@ -9274,7 +9354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>42644</v>
       </c>
@@ -9282,7 +9362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>42675</v>
       </c>
@@ -9290,7 +9370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>42705</v>
       </c>
@@ -9298,7 +9378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>42736</v>
       </c>
@@ -9306,7 +9386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>42767</v>
       </c>
@@ -9314,7 +9394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
         <v>42795</v>
       </c>
@@ -9322,7 +9402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>42826</v>
       </c>
@@ -9330,7 +9410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>42856</v>
       </c>
@@ -9338,7 +9418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>42887</v>
       </c>
@@ -9346,7 +9426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>42917</v>
       </c>
@@ -9354,7 +9434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>42948</v>
       </c>
@@ -9362,7 +9442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>42979</v>
       </c>
@@ -9370,7 +9450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>43009</v>
       </c>
@@ -9378,7 +9458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>43040</v>
       </c>
@@ -9386,7 +9466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50">
         <v>43070</v>
       </c>
@@ -9412,13 +9492,13 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="18"/>
-    <col min="2" max="16384" width="11.08984375" style="17"/>
+    <col min="1" max="1" width="11.140625" style="18"/>
+    <col min="2" max="16384" width="11.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>263</v>
       </c>
@@ -9433,7 +9513,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77"/>
       <c r="B2" s="31" t="s">
         <v>265</v>
@@ -9452,7 +9532,7 @@
       </c>
       <c r="G2" s="77"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>42036</v>
       </c>
@@ -9476,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>42064</v>
       </c>
@@ -9500,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>42095</v>
       </c>
@@ -9524,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>42125</v>
       </c>
@@ -9548,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>42156</v>
       </c>
@@ -9572,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>42186</v>
       </c>
@@ -9596,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>42217</v>
       </c>
@@ -9620,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>42248</v>
       </c>
@@ -9644,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>42278</v>
       </c>
@@ -9668,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>42309</v>
       </c>
@@ -9692,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>42339</v>
       </c>
@@ -9716,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>42370</v>
       </c>
@@ -9740,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>42401</v>
       </c>
@@ -9764,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>42430</v>
       </c>
@@ -9788,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>42461</v>
       </c>
@@ -9812,7 +9892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>42491</v>
       </c>
@@ -9836,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>42522</v>
       </c>
@@ -9860,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>42552</v>
       </c>
@@ -9884,7 +9964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>42583</v>
       </c>
@@ -9908,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>42614</v>
       </c>
@@ -9932,7 +10012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>42644</v>
       </c>
@@ -9956,7 +10036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>42675</v>
       </c>
@@ -9980,7 +10060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>42705</v>
       </c>
@@ -10004,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>42736</v>
       </c>
@@ -10028,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>42767</v>
       </c>
@@ -10052,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>42795</v>
       </c>
@@ -10076,7 +10156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>42826</v>
       </c>
@@ -10100,7 +10180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>42856</v>
       </c>
@@ -10124,7 +10204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>42887</v>
       </c>
@@ -10148,7 +10228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>42917</v>
       </c>
@@ -10172,7 +10252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>42948</v>
       </c>
@@ -10196,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>42979</v>
       </c>
@@ -10220,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>43009</v>
       </c>
@@ -10244,7 +10324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>43040</v>
       </c>
@@ -10268,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43070</v>
       </c>
@@ -10311,13 +10391,13 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="18"/>
-    <col min="2" max="16384" width="11.08984375" style="17"/>
+    <col min="1" max="1" width="11.140625" style="18"/>
+    <col min="2" max="16384" width="11.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>263</v>
       </c>
@@ -10332,7 +10412,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81"/>
       <c r="B2" s="28" t="s">
         <v>265</v>
@@ -10351,7 +10431,7 @@
       </c>
       <c r="G2" s="81"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>42036</v>
       </c>
@@ -10375,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>42064</v>
       </c>
@@ -10399,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>42095</v>
       </c>
@@ -10423,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>42125</v>
       </c>
@@ -10447,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>42156</v>
       </c>
@@ -10471,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>42186</v>
       </c>
@@ -10495,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>42217</v>
       </c>
@@ -10519,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>42248</v>
       </c>
@@ -10543,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>42278</v>
       </c>
@@ -10567,7 +10647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>42309</v>
       </c>
@@ -10591,7 +10671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>42339</v>
       </c>
@@ -10615,7 +10695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>42370</v>
       </c>
@@ -10639,7 +10719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>42401</v>
       </c>
@@ -10663,7 +10743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>42430</v>
       </c>
@@ -10687,7 +10767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>42461</v>
       </c>
@@ -10711,7 +10791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>42491</v>
       </c>
@@ -10735,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>42522</v>
       </c>
@@ -10759,7 +10839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>42552</v>
       </c>
@@ -10783,7 +10863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>42583</v>
       </c>
@@ -10807,7 +10887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>42614</v>
       </c>
@@ -10831,7 +10911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>42644</v>
       </c>
@@ -10855,7 +10935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>42675</v>
       </c>
@@ -10879,7 +10959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>42705</v>
       </c>
@@ -10903,7 +10983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>42736</v>
       </c>
@@ -10927,7 +11007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>42767</v>
       </c>
@@ -10951,7 +11031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>42795</v>
       </c>
@@ -10975,7 +11055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>42826</v>
       </c>
@@ -10999,7 +11079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>42856</v>
       </c>
@@ -11023,7 +11103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>42887</v>
       </c>
@@ -11047,7 +11127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>42917</v>
       </c>
@@ -11071,7 +11151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>42948</v>
       </c>
@@ -11095,7 +11175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>42979</v>
       </c>
@@ -11119,7 +11199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>43009</v>
       </c>
@@ -11143,7 +11223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>43040</v>
       </c>
@@ -11167,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>43070</v>
       </c>
